--- a/DRUG.xlsx
+++ b/DRUG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC4D5B8-7F89-4415-BA11-40FB8AE1CB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FBA735-502A-47CD-B1AE-9975F579D021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18630" yWindow="1550" windowWidth="19120" windowHeight="19600" xr2:uid="{2E06147C-DC22-4B3A-9F5A-900BC9B43CBA}"/>
+    <workbookView xWindow="14390" yWindow="3840" windowWidth="22530" windowHeight="12300" xr2:uid="{2E06147C-DC22-4B3A-9F5A-900BC9B43CBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Price</t>
   </si>
@@ -60,9 +60,6 @@
     <t>11/4/24: sold 1.6m shares at 21.70 for $35m gross.</t>
   </si>
   <si>
-    <t>Q224</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -97,6 +94,45 @@
   </si>
   <si>
     <t>bexicaserin, fenfluramine</t>
+  </si>
+  <si>
+    <t>1/7/25: hires CMO</t>
+  </si>
+  <si>
+    <t>2019: incorporated in Canada as 1210954 BC Ltd</t>
+  </si>
+  <si>
+    <t>3/26/20: changed name to Bright Minds</t>
+  </si>
+  <si>
+    <t>BMB-202</t>
+  </si>
+  <si>
+    <t>Depression</t>
+  </si>
+  <si>
+    <t>CFO: Ryan Cheung, Canada</t>
+  </si>
+  <si>
+    <t>CMO: Mark Smith, Maryland, CMO VistaGen</t>
+  </si>
+  <si>
+    <t>Zero employees</t>
+  </si>
+  <si>
+    <t>subsidiary Bright Minds Biosciences has one employee</t>
+  </si>
+  <si>
+    <t>CEO: Ian McDonald, Dubai - gold mining management team. Owns 19.53% of company.</t>
+  </si>
+  <si>
+    <t>Cormorant 15% holder</t>
+  </si>
+  <si>
+    <t>COO: Alex Vasilkevich</t>
+  </si>
+  <si>
+    <t>Q324</t>
   </si>
 </sst>
 </file>
@@ -247,7 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -255,7 +291,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -600,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F63254-1C0B-4843-88B1-23023E96B544}">
-  <dimension ref="B2:M13"/>
+  <dimension ref="B2:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -616,92 +651,88 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
+      <c r="B2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
       <c r="K2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>46.89</v>
+        <v>31.98</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="5"/>
       <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <f>4.649066+1.6</f>
-        <v>6.2490660000000009</v>
+        <f>4.524087+1.6</f>
+        <v>6.1240869999999994</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="5"/>
       <c r="K4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>293.01870474000003</v>
+        <v>195.84830226</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
       <c r="K5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="2">
-        <f>35+6.190244</f>
-        <v>41.190244</v>
+        <f>35+5.720092</f>
+        <v>40.720092000000001</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
@@ -712,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
@@ -721,7 +752,12 @@
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>251.82846074000003</v>
+        <v>155.12821026</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="13" x14ac:dyDescent="0.3">
+      <c r="I10" s="12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
@@ -730,13 +766,58 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="13" x14ac:dyDescent="0.3">
-      <c r="I12" s="13" t="s">
-        <v>17</v>
+      <c r="I12" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="13" x14ac:dyDescent="0.3">
-      <c r="I13" s="13" t="s">
-        <v>14</v>
+      <c r="I13" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I25" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -763,8 +844,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>15</v>
+      <c r="A1" s="13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -777,7 +858,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1">
         <v>200</v>
